--- a/docs/docs/gencc-submission-sheet-v1.xlsx
+++ b/docs/docs/gencc-submission-sheet-v1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottg/SitesDev/gencc-website/docs/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31F30EA-58CE-CB40-AD45-50B2064A0BAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC300DA9-7601-A24B-8956-CBF6BCC0A9F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13620" yWindow="460" windowWidth="35840" windowHeight="20260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="HELP - Submitters" sheetId="2" r:id="rId2"/>
+    <sheet name="HELP - Classifications" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -196,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
   <si>
     <t>GenCC Submission Sheet - Version 1</t>
   </si>
@@ -276,18 +278,6 @@
     <t>OPTIONAL - Text string of the MOI. The submitted text won't be displayed publically on the website. Information provided will primarily be used to support audit/review.</t>
   </si>
   <si>
-    <t>REQUIRED - The submitters GenCC identifier (Identifiers will be provided by GenCC)</t>
-  </si>
-  <si>
-    <t>OPTIONAL - Submitter Name.  The submitted text won't be displayed publically on the website. Information provided will primarily be used to support audit/review.</t>
-  </si>
-  <si>
-    <t>REQUIRED - The GenCC identifier classification (Classificaiton IDs will be provided by GenCC) Multiple identifiers will be rejected.</t>
-  </si>
-  <si>
-    <t>OPTIONAL - Classificaiton name.  The submitted text won't be displayed publically on the website. Information provided will primarily be used to support audit/review.</t>
-  </si>
-  <si>
     <t>REQUIRED - The date should be provided as ISO8601.</t>
   </si>
   <si>
@@ -298,9 +288,6 @@
   </si>
   <si>
     <t>RECOMMENDED BUT OPTIONAL - Listing of PMIDs that have been used in the submission seperated by comma.</t>
-  </si>
-  <si>
-    <t>RECOMMENDED BUT OPTIONAL - The public URL for where a visitor would be able to find/read about interpration guidelines used for the specific curation.</t>
   </si>
   <si>
     <t>EXAMPLES</t>
@@ -392,12 +379,168 @@
   <si>
     <t>VERSION1</t>
   </si>
+  <si>
+    <t>REQUIRED - The public URL for where a visitor would be able to find/read about interpration guidelines used for the specific curation.</t>
+  </si>
+  <si>
+    <t>GENCC:000101</t>
+  </si>
+  <si>
+    <t>Ambry Genetics</t>
+  </si>
+  <si>
+    <t>GENCC:000102</t>
+  </si>
+  <si>
+    <t>ClinGen</t>
+  </si>
+  <si>
+    <t>GENCC:000103</t>
+  </si>
+  <si>
+    <t>DECIPHER</t>
+  </si>
+  <si>
+    <t>GENCC:000104</t>
+  </si>
+  <si>
+    <t>Genomics England PanelApp</t>
+  </si>
+  <si>
+    <t>GENCC:000105</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>GENCC:000106</t>
+  </si>
+  <si>
+    <t>Invitae</t>
+  </si>
+  <si>
+    <t>GENCC:000107</t>
+  </si>
+  <si>
+    <t>Laboratory for Molecular Medicine</t>
+  </si>
+  <si>
+    <t>GENCC:000108</t>
+  </si>
+  <si>
+    <t>Myriad Women’s Health</t>
+  </si>
+  <si>
+    <t>GENCC:000109</t>
+  </si>
+  <si>
+    <t>Online Mendelian Inheritance in Man (OMIM)</t>
+  </si>
+  <si>
+    <t>GENCC:000110</t>
+  </si>
+  <si>
+    <t>Orphanet</t>
+  </si>
+  <si>
+    <t>GENCC:000111</t>
+  </si>
+  <si>
+    <t>PanelApp Australia</t>
+  </si>
+  <si>
+    <t>GENCC:000112</t>
+  </si>
+  <si>
+    <t>TGMI</t>
+  </si>
+  <si>
+    <t>GENCC:000113</t>
+  </si>
+  <si>
+    <t>G2P</t>
+  </si>
+  <si>
+    <t>GENCC:100001</t>
+  </si>
+  <si>
+    <t>GENCC:100002</t>
+  </si>
+  <si>
+    <t>Strong</t>
+  </si>
+  <si>
+    <t>GENCC:100003</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>GENCC:100004</t>
+  </si>
+  <si>
+    <t>Limited</t>
+  </si>
+  <si>
+    <t>GENCC:100005</t>
+  </si>
+  <si>
+    <t>Disputed Evidence</t>
+  </si>
+  <si>
+    <t>GENCC:100006</t>
+  </si>
+  <si>
+    <t>Refuted Evidence</t>
+  </si>
+  <si>
+    <t>GENCC:100007</t>
+  </si>
+  <si>
+    <t>Animal Model Only</t>
+  </si>
+  <si>
+    <t>GENCC:100008</t>
+  </si>
+  <si>
+    <t>No Known Disease Relationship</t>
+  </si>
+  <si>
+    <t>GENCC:100009</t>
+  </si>
+  <si>
+    <t>Supportive</t>
+  </si>
+  <si>
+    <t>SUBMITTER ID QUCK REFERENCE</t>
+  </si>
+  <si>
+    <t>Please choose the submitter_id assoicated with your organization.  (If you don't see your organization on this list please contact the GenCC)</t>
+  </si>
+  <si>
+    <t>CLASSIFICATION_ID QUCK REFERENCE</t>
+  </si>
+  <si>
+    <t>Please use the classification_id provided as the identifier for each submission classification.</t>
+  </si>
+  <si>
+    <t>REQUIRED - The GenCC identifier classification (More at https://thegencc.org/submission-directions or by choosing the approprate help tab in this document) Multiple identifiers will be rejected.</t>
+  </si>
+  <si>
+    <t>OPTIONAL - Classificaiton name.  The submitted text won't be displayed publically on the website. Information provided will primarily be used to support audit/review.  (More at https://thegencc.org/submission-directions or by choosing the approprate help tab in this document)</t>
+  </si>
+  <si>
+    <t>OPTIONAL - Submitter Name.  The submitted text won't be displayed publically on the website. Information provided will primarily be used to support audit/review. (More at https://thegencc.org/submission-directions or by choosing the approprate help tab in this document)</t>
+  </si>
+  <si>
+    <t>REQUIRED - The submitters GenCC identifier (More at https://thegencc.org/submission-directions or by choosing the approprate help tab in this document)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -408,73 +551,52 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF999999"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF999999"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFE69138"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF00FFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF00FFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -485,7 +607,49 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FF00FFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00FFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -545,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -652,9 +816,13 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,7 +1044,7 @@
   <dimension ref="A1:AD1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1026,7 +1194,7 @@
     </row>
     <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1104,8 +1272,8 @@
       <c r="O6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="15" t="s">
-        <v>63</v>
+      <c r="P6" s="43" t="s">
+        <v>58</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1122,7 +1290,7 @@
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
     </row>
-    <row r="7" spans="1:30" ht="136" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30" ht="187" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>19</v>
       </c>
@@ -1145,31 +1313,31 @@
         <v>25</v>
       </c>
       <c r="H7" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="M7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="N7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="O7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="P7" s="17" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
@@ -1188,7 +1356,7 @@
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -1222,96 +1390,96 @@
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="G9" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="H9" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="I9" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="J9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="K9" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="L9" s="32" t="s">
         <v>42</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>47</v>
       </c>
       <c r="M9" s="33"/>
       <c r="N9" s="34" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="37"/>
       <c r="R9" s="37"/>
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="31" t="s">
+      <c r="N10" s="34" t="s">
         <v>43</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>48</v>
       </c>
       <c r="O10" s="35"/>
       <c r="P10" s="38"/>
@@ -1320,55 +1488,55 @@
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="L11" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>47</v>
-      </c>
       <c r="M11" s="33" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N11" s="34"/>
       <c r="O11" s="35" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P11" s="39" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="37"/>
       <c r="R11" s="37"/>
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -21268,4 +21436,312 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866E2B5F-8E98-1145-9344-3C52C1A9903C}">
+  <dimension ref="A1:AD16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A1" s="44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+    </row>
+    <row r="3" spans="1:30" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="14" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C375651F-5311-EC4D-A408-4D3F84707157}">
+  <dimension ref="A1:AD12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A1" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+    </row>
+    <row r="3" spans="1:30" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="14" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/docs/gencc-submission-sheet-v1.xlsx
+++ b/docs/docs/gencc-submission-sheet-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottg/SitesDev/gencc-website/docs/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC300DA9-7601-A24B-8956-CBF6BCC0A9F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F7FD3E-18C1-F847-A64D-16DCFB76EA99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13620" yWindow="460" windowWidth="35840" windowHeight="20260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,9 +380,6 @@
     <t>VERSION1</t>
   </si>
   <si>
-    <t>REQUIRED - The public URL for where a visitor would be able to find/read about interpration guidelines used for the specific curation.</t>
-  </si>
-  <si>
     <t>GENCC:000101</t>
   </si>
   <si>
@@ -534,6 +531,9 @@
   </si>
   <si>
     <t>REQUIRED - The submitters GenCC identifier (More at https://thegencc.org/submission-directions or by choosing the approprate help tab in this document)</t>
+  </si>
+  <si>
+    <t>REQUIRED - The public URL for where a visitor would be able to find/read about interpration guidelines used for the specific curation. (More at https://thegencc.org/submission-directions)</t>
   </si>
 </sst>
 </file>
@@ -1043,8 +1043,8 @@
   </sheetPr>
   <dimension ref="A1:AD1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1313,16 +1313,16 @@
         <v>25</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L7" s="18" t="s">
         <v>26</v>
@@ -1337,7 +1337,7 @@
         <v>29</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
@@ -21454,12 +21454,12 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -21501,106 +21501,106 @@
     </row>
     <row r="4" spans="1:30" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>63</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>65</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>67</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>71</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>75</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>77</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>79</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>81</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>83</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>85</v>
-      </c>
-      <c r="B16" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -21624,12 +21624,12 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -21671,7 +21671,7 @@
     </row>
     <row r="4" spans="1:30" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -21679,66 +21679,66 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
         <v>88</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>90</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>92</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>94</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>96</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>98</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>100</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>102</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/docs/docs/gencc-submission-sheet-v1.xlsx
+++ b/docs/docs/gencc-submission-sheet-v1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottg/SitesDev/gencc-website/docs/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F7FD3E-18C1-F847-A64D-16DCFB76EA99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3AB177-A6D0-FB41-92CB-2EB55C20593A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="460" windowWidth="35840" windowHeight="20260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34960" yWindow="900" windowWidth="35840" windowHeight="20260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="HELP - Submitters" sheetId="2" r:id="rId2"/>
     <sheet name="HELP - Classifications" sheetId="3" r:id="rId3"/>
+    <sheet name="HELP - MOI" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -198,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="124">
   <si>
     <t>GenCC Submission Sheet - Version 1</t>
   </si>
@@ -534,6 +535,42 @@
   </si>
   <si>
     <t>REQUIRED - The public URL for where a visitor would be able to find/read about interpration guidelines used for the specific curation. (More at https://thegencc.org/submission-directions)</t>
+  </si>
+  <si>
+    <t>HP:0000007</t>
+  </si>
+  <si>
+    <t>Autosomal recessive inheritance</t>
+  </si>
+  <si>
+    <t>HP:0001417</t>
+  </si>
+  <si>
+    <t>X-linked inheritance</t>
+  </si>
+  <si>
+    <t>HP:0001427</t>
+  </si>
+  <si>
+    <t>Mitochondrial Inheritance</t>
+  </si>
+  <si>
+    <t>HP:0032113</t>
+  </si>
+  <si>
+    <t>Semi-dominant mode of inheritance</t>
+  </si>
+  <si>
+    <t>HP:0000005</t>
+  </si>
+  <si>
+    <t>(Literally mode of inheritance but we map to) Unknown inheritance</t>
+  </si>
+  <si>
+    <t>HP:0001450</t>
+  </si>
+  <si>
+    <t>Y-linked inheritance</t>
   </si>
 </sst>
 </file>
@@ -1043,8 +1080,8 @@
   </sheetPr>
   <dimension ref="A1:AD1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21613,7 +21650,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A3" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21744,4 +21781,98 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF7908D-073F-A543-B384-672B202EE833}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/docs/gencc-submission-sheet-v1.xlsx
+++ b/docs/docs/gencc-submission-sheet-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottg/SitesDev/gencc-website/docs/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3AB177-A6D0-FB41-92CB-2EB55C20593A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7C74C0-C57D-7547-88F5-7D5197C3BBB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34960" yWindow="900" windowWidth="35840" windowHeight="20260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34300" yWindow="2800" windowWidth="35840" windowHeight="20260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="125">
   <si>
     <t>GenCC Submission Sheet - Version 1</t>
   </si>
@@ -571,6 +571,9 @@
   </si>
   <si>
     <t>Y-linked inheritance</t>
+  </si>
+  <si>
+    <t>The GenCC website required MOI to be provided as HPO terms.  The following are suggested common MOI identifiers. When sharing submissions, please ensure that the classification_id column contains one of the following identifiers (HP:XXXXXX).</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1083,7 @@
   </sheetPr>
   <dimension ref="A1:AD1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -21787,8 +21790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF7908D-073F-A543-B384-672B202EE833}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21804,7 +21807,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="B2" s="7"/>
     </row>

--- a/docs/docs/gencc-submission-sheet-v1.xlsx
+++ b/docs/docs/gencc-submission-sheet-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottg/SitesDev/gencc-website/docs/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7C74C0-C57D-7547-88F5-7D5197C3BBB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2488588E-5440-8E41-9031-61BD17F0E636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34300" yWindow="2800" windowWidth="35840" windowHeight="20260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -28,149 +28,6 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Identifier options also provided by you?
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">	-Marina DiStefano
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Correct.  I am checking to see if this exists yet (via ClinGen)... else we will provide a list like the one above.  Just to make sure we don't need to map "Animal Model" and "Animal-model" as the same thing.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">	-Scott Goehringer
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">----
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Will this be assigned by you?
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">	-Marina DiStefano
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Yes, we will provide a list of these... assumed for each of the current members and as new members are added they can be issued.  I was hoping to use the ClinVar ID or some other ID that exists but I couldn't think of one... other thoughts?
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">	-Scott Goehringer
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">----
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">You probably want to add accepted terms here: MONDO, ORPHA, OMIM if that's what we end up agreeing on
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">	-Marina DiStefano
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">OOPS!  Thanks, correcting
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">	-Scott Goehringer</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
@@ -1083,9 +940,7 @@
   </sheetPr>
   <dimension ref="A1:AD1005"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -21790,7 +21645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF7908D-073F-A543-B384-672B202EE833}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/docs/docs/gencc-submission-sheet-v1.xlsx
+++ b/docs/docs/gencc-submission-sheet-v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottg/SitesDev/gencc-website/docs/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2488588E-5440-8E41-9031-61BD17F0E636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C75046-670C-B34D-85D5-A6EC1B5125B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -136,9 +136,6 @@
     <t>OPTIONAL - Text string of the MOI. The submitted text won't be displayed publically on the website. Information provided will primarily be used to support audit/review.</t>
   </si>
   <si>
-    <t>REQUIRED - The date should be provided as ISO8601.</t>
-  </si>
-  <si>
     <t>RECOMMENDED BUT OPTIONAL - If available, the full url to where a visitor can access a public report/information (not in GenCC)</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>Autosomal dominant inheritance</t>
   </si>
   <si>
-    <t>00001</t>
-  </si>
-  <si>
     <t>Lab123 Corp</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
   </si>
   <si>
     <t>Definitive</t>
-  </si>
-  <si>
-    <t>2020-01-28T16:22:37-0700</t>
   </si>
   <si>
     <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetur adipiscing elit. Mauris blandit, justo eu mollis finibus, eros elit efficitur eros, sed tincidunt quam ipsum ac felis. </t>
@@ -431,6 +422,15 @@
   </si>
   <si>
     <t>The GenCC website required MOI to be provided as HPO terms.  The following are suggested common MOI identifiers. When sharing submissions, please ensure that the classification_id column contains one of the following identifiers (HP:XXXXXX).</t>
+  </si>
+  <si>
+    <t>2020/01/20</t>
+  </si>
+  <si>
+    <t>REQUIRED - The date should be provided as YYYY/MM/DD</t>
+  </si>
+  <si>
+    <t>GENCC:10001</t>
   </si>
 </sst>
 </file>
@@ -940,7 +940,9 @@
   </sheetPr>
   <dimension ref="A1:AD1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1089,7 +1091,7 @@
     </row>
     <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1168,7 +1170,7 @@
         <v>18</v>
       </c>
       <c r="P6" s="43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1208,31 +1210,31 @@
         <v>25</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L7" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="N7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="O7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="P7" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
@@ -1251,7 +1253,7 @@
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -1285,96 +1287,96 @@
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="C9" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="D9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="E9" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="F9" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="G9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="H9" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="J9" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="K9" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>41</v>
-      </c>
       <c r="L9" s="32" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="M9" s="33"/>
       <c r="N9" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="37"/>
       <c r="R9" s="37"/>
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="F10" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="31" t="s">
+      <c r="N10" s="34" t="s">
         <v>40</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>43</v>
       </c>
       <c r="O10" s="35"/>
       <c r="P10" s="38"/>
@@ -1383,55 +1385,55 @@
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="H11" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="J11" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="K11" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="31" t="s">
-        <v>41</v>
-      </c>
       <c r="L11" s="32" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N11" s="34"/>
       <c r="O11" s="35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P11" s="39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="37"/>
       <c r="R11" s="37"/>
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -21349,12 +21351,12 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -21396,106 +21398,106 @@
     </row>
     <row r="4" spans="1:30" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
         <v>60</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>64</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
         <v>66</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
         <v>70</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
         <v>72</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
         <v>74</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
         <v>76</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
         <v>78</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
         <v>80</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
         <v>82</v>
-      </c>
-      <c r="B15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -21519,12 +21521,12 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -21566,74 +21568,74 @@
     </row>
     <row r="4" spans="1:30" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>86</v>
       </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>87</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>89</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
         <v>91</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
         <v>93</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
         <v>95</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
         <v>97</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
         <v>99</v>
-      </c>
-      <c r="B11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -21657,12 +21659,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B2" s="7"/>
     </row>
@@ -21676,58 +21678,58 @@
     </row>
     <row r="4" spans="1:2" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
         <v>112</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>114</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
         <v>116</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
         <v>118</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
         <v>120</v>
-      </c>
-      <c r="B9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
